--- a/2019_by_lecture_section.xlsx
+++ b/2019_by_lecture_section.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>YEAR</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Avg Grade</t>
   </si>
   <si>
+    <t>Avg Grade Error</t>
+  </si>
+  <si>
     <t>Pre Score F</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Avg Grade F</t>
   </si>
   <si>
+    <t>Avg Grade F error</t>
+  </si>
+  <si>
     <t>Pre Score M</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>Avg M Grade</t>
+  </si>
+  <si>
+    <t>Avg M grade error</t>
   </si>
   <si>
     <t>2019 111</t>
@@ -458,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,381 +546,432 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>71.59545454545454</v>
       </c>
       <c r="D2">
+        <v>1.032202498452333</v>
+      </c>
+      <c r="E2">
         <v>12.23404255319149</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8997958273688867</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15.25531914893617</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.9658690110177403</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.021276595744681</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.170059880239521</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.04118831310426695</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.320051316197536</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.5814662649722386</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>47</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>68.375</v>
       </c>
-      <c r="O2">
+      <c r="P2">
+        <v>2.321008164722654</v>
+      </c>
+      <c r="Q2">
         <v>18.21052631578947</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.5735942161974787</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>20.81954887218045</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.5600054708812855</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>2.609022556390979</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.2213010204081634</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.8016336147344186</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.3291203203828698</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>133</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>73.27659574468085</v>
       </c>
+      <c r="AB2">
+        <v>1.245218062265225</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>71.59545454545454</v>
       </c>
       <c r="D3">
+        <v>1.032202498452333</v>
+      </c>
+      <c r="E3">
         <v>12.23404255319149</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.8997958273688867</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15.25531914893617</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9658690110177403</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.021276595744681</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.170059880239521</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.04118831310426695</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.320051316197536</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.5814662649722386</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>47</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>68.375</v>
       </c>
-      <c r="O3">
+      <c r="P3">
+        <v>2.321008164722654</v>
+      </c>
+      <c r="Q3">
         <v>18.21052631578947</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.5735942161974787</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>20.81954887218045</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.5600054708812855</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>2.609022556390979</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.2213010204081634</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.8016336147344186</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.3291203203828698</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>133</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>73.27659574468085</v>
       </c>
+      <c r="AB3">
+        <v>1.245218062265225</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>77.57391304347826</v>
       </c>
       <c r="D4">
+        <v>0.6782427209726147</v>
+      </c>
+      <c r="E4">
         <v>10.14835164835165</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3326392230262093</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15.03296703296703</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.3881009824623639</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.884615384615385</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.2460559092167174</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.0168381049037444</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.5111469703360593</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.3060009826661632</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>182</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>77.95854922279793</v>
       </c>
-      <c r="O4">
+      <c r="P4">
+        <v>0.8365708117439418</v>
+      </c>
+      <c r="Q4">
         <v>14.34020618556701</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.6335559720026744</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>18.84536082474227</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.6572586065613458</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>4.505154639175258</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.2876892692560896</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.9128976095703261</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.4176424256880285</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>97</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>77.48514851485149</v>
       </c>
+      <c r="AB4">
+        <v>1.439720397867885</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>76.92</v>
       </c>
       <c r="D5">
+        <v>0.8249976397103438</v>
+      </c>
+      <c r="E5">
         <v>9.891891891891891</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.4384006655406613</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15.12612612612613</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.510835438019553</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.234234234234235</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.2603046594982079</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.02031564062966204</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.6731626759432844</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.3711449304115318</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>111</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>75.98275862068965</v>
       </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.047734956715362</v>
+      </c>
+      <c r="Q5">
         <v>15.05882352941176</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.9449190295037658</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>19.52941176470588</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.9556243995836361</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>4.47058823529412</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.299212598425197</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.0468285525098863</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>1.34390846615308</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.6226779239712562</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>51</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>79.73584905660377</v>
       </c>
+      <c r="AB5">
+        <v>1.698875010543342</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>76.92</v>
+        <v>78.47586206896551</v>
       </c>
       <c r="D6">
-        <v>9.891891891891891</v>
+        <v>1.143492447233201</v>
       </c>
       <c r="E6">
-        <v>0.4384006655406613</v>
+        <v>10.54929577464789</v>
       </c>
       <c r="F6">
-        <v>15.12612612612613</v>
+        <v>0.507405414323354</v>
       </c>
       <c r="G6">
-        <v>0.510835438019553</v>
+        <v>14.88732394366197</v>
       </c>
       <c r="H6">
-        <v>5.234234234234235</v>
+        <v>0.5972941318896394</v>
       </c>
       <c r="I6">
-        <v>0.2603046594982079</v>
+        <v>4.338028169014084</v>
       </c>
       <c r="J6">
-        <v>0.02031564062966204</v>
+        <v>0.22302679217958</v>
       </c>
       <c r="K6">
-        <v>0.6731626759432844</v>
+        <v>0.02894816654077934</v>
       </c>
       <c r="L6">
-        <v>0.3711449304115318</v>
+        <v>0.7837222304327296</v>
       </c>
       <c r="M6">
-        <v>111</v>
+        <v>0.5246225670094895</v>
       </c>
       <c r="N6">
-        <v>75.98275862068965</v>
+        <v>71</v>
       </c>
       <c r="O6">
-        <v>15.05882352941176</v>
+        <v>80.93506493506493</v>
       </c>
       <c r="P6">
-        <v>0.9449190295037658</v>
+        <v>1.317288384685406</v>
       </c>
       <c r="Q6">
-        <v>19.52941176470588</v>
+        <v>13.54347826086956</v>
       </c>
       <c r="R6">
-        <v>0.9556243995836361</v>
+        <v>0.8239802784441267</v>
       </c>
       <c r="S6">
-        <v>4.47058823529412</v>
+        <v>18.08695652173913</v>
       </c>
       <c r="T6">
-        <v>0.299212598425197</v>
+        <v>0.8910863407238711</v>
       </c>
       <c r="U6">
-        <v>0.0468285525098863</v>
+        <v>4.543478260869565</v>
       </c>
       <c r="V6">
-        <v>1.34390846615308</v>
-      </c>
-      <c r="W6">
-        <v>0.6226779239712562</v>
+        <v>0.2760898282694847</v>
       </c>
       <c r="X6">
-        <v>51</v>
+        <v>1.213663201176306</v>
       </c>
       <c r="Y6">
-        <v>79.73584905660377</v>
+        <v>0.5540422573562038</v>
+      </c>
+      <c r="Z6">
+        <v>46</v>
+      </c>
+      <c r="AA6">
+        <v>75</v>
+      </c>
+      <c r="AB6">
+        <v>2.345963788998198</v>
       </c>
     </row>
   </sheetData>
